--- a/ATIVIDADES/atividade1/resultadosSorts.xlsx
+++ b/ATIVIDADES/atividade1/resultadosSorts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiagotokuji/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4680890B-F29D-1A40-8D94-3DD80287395D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DC9308-6E3A-B645-AF1A-98D95AB52B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-3600" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{A0DAE8EE-5BDB-C047-AF4C-7ADD4622A17A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
   <si>
     <t>trocas</t>
   </si>
@@ -113,6 +113,9 @@
   <si>
     <t>sort + binaria</t>
   </si>
+  <si>
+    <t>Economia com o sort</t>
+  </si>
 </sst>
 </file>
 
@@ -158,7 +161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -203,13 +206,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -228,34 +245,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -267,13 +284,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="20">
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -281,13 +306,25 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -317,6 +354,10 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -327,19 +368,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -963,11 +992,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Custo</a:t>
+              <a:t>Analise</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> para busca Linear X sort + binária (InsertionSort)</a:t>
+              <a:t> de buscar Linear X sort + binária (bubbleSort)</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -981,26 +1010,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1011,17 +1020,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>InsertionSort!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sort + Binaria</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1048,23 +1046,11 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>InsertionSort!$H$2:$H$6</c:f>
+              <c:f>InsertionSort!$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>1600000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1072,125 +1058,35 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>InsertionSort!$I$2:$I$6</c:f>
+              <c:f>InsertionSort!$I$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2499498997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10003455916</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>39998391897.099998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>160002414244.29999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>640123779732</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F210-204E-B280-1E2AF8BBE5F9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>InsertionSort!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>linear</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>InsertionSort!$H$2:$H$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>InsertionSort!$J$2:$J$6</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F210-204E-B280-1E2AF8BBE5F9}"/>
+              <c16:uniqueId val="{00000002-3F08-D542-B40E-C779D4BD94BB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1202,11 +1098,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1364297728"/>
-        <c:axId val="1364299440"/>
+        <c:axId val="249751264"/>
+        <c:axId val="249750400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1364297728"/>
+        <c:axId val="249751264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1247,11 +1143,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Tamanho do</a:t>
+                  <a:t>Tamanho</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> Vetor</a:t>
+                  <a:t> do Vetor</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB"/>
               </a:p>
@@ -1265,26 +1161,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1323,7 +1199,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1364299440"/>
+        <c:crossAx val="249750400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -1360,7 +1236,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1364299440"/>
+        <c:axId val="249750400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1401,11 +1277,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Quantidade de trocas</a:t>
+                  <a:t>Quantidade</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> e atribuições</a:t>
+                  <a:t> de atribuição e comparação</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB"/>
               </a:p>
@@ -1419,26 +1295,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
@@ -1477,7 +1333,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1364297728"/>
+        <c:crossAx val="249751264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -1513,6 +1369,10 @@
           </c:dispUnitsLbl>
         </c:dispUnits>
       </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1520,33 +1380,32 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-    </c:plotArea>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -1566,6 +1425,496 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Analise</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> de buscar Linear X sort + binária (bubbleSort)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>InsertionSort!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>InsertionSort!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E0C9-024B-A9B0-E8A5B8EAE189}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="249751264"/>
+        <c:axId val="249750400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="249751264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Tamanho</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> do Vetor</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="249750400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="249750400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Quantidade</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> de atribuição e comparação</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0555555555555555E-2"/>
+              <c:y val="7.0231481481481492E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="249751264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -2112,7 +2461,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -2182,7 +2531,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-GB"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2466,7 +2815,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-GB"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2620,7 +2969,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-GB"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2780,7 +3129,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -3301,7 +3650,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -3371,7 +3720,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-GB"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3952,7 +4301,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -4945,46 +5294,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7566,522 +7875,6 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8637,23 +8430,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>177678</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>72414</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476860</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>23568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>30528</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>196239</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200879</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>147393</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="14" name="Chart 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFD707F4-84D7-DBB0-DC0E-BAA832461250}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{551CAE96-5272-18D1-FEC4-35EA0F7737AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8666,6 +8459,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>446331</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>60202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>170350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>184027</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFB9F49B-A5DB-C29D-B950-4D2A792C41E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8870,14 +8699,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC366884-EEAC-AA4E-8DD3-112EE6B4BBFC}" name="Table1" displayName="Table1" ref="A1:E6" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC366884-EEAC-AA4E-8DD3-112EE6B4BBFC}" name="Table1" displayName="Table1" ref="A1:E6" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:E6" xr:uid="{AC366884-EEAC-AA4E-8DD3-112EE6B4BBFC}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{FDBCDEF2-C07E-E943-988F-A5A2114183C9}" name="tamanho do vetor" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{A3F4653E-1666-B84E-BC43-F6B0845B24CF}" name="trocas" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{AB843094-38E3-F648-8893-08EDA7A30D9A}" name="linear" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{A1C07001-E6BD-214C-B7C4-51733944B8EA}" name="binaria" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{C29B4973-96D0-E946-8AB2-E5C368B6C118}" name="Sort + Binaria" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{FDBCDEF2-C07E-E943-988F-A5A2114183C9}" name="tamanho do vetor" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{A3F4653E-1666-B84E-BC43-F6B0845B24CF}" name="trocas" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{AB843094-38E3-F648-8893-08EDA7A30D9A}" name="linear" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{A1C07001-E6BD-214C-B7C4-51733944B8EA}" name="binaria" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{C29B4973-96D0-E946-8AB2-E5C368B6C118}" name="Sort + Binaria" dataDxfId="13">
       <calculatedColumnFormula>Table1[[#This Row],[binaria]]+Table1[[#This Row],[trocas]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8886,14 +8715,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B51EC322-75CA-6A42-AEC2-AFB914E84ECF}" name="Table2" displayName="Table2" ref="A1:E6" totalsRowShown="0" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B51EC322-75CA-6A42-AEC2-AFB914E84ECF}" name="Table2" displayName="Table2" ref="A1:E6" totalsRowShown="0" dataDxfId="12">
   <autoFilter ref="A1:E6" xr:uid="{B51EC322-75CA-6A42-AEC2-AFB914E84ECF}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{55177202-5D0E-1645-B0EF-F0AA23A6C32F}" name="tamanho do vetor" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{736B6FB3-C233-6842-BF15-60367B451223}" name="trocas" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{343AA112-90E9-BF40-A432-F257262E3F73}" name="linear" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{46731F3C-85DC-D94C-A862-B5CF82BE2059}" name="binaria" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{197C4A07-C4A1-2645-B5F9-2F2BCF87670A}" name="Sort + Binaria" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{55177202-5D0E-1645-B0EF-F0AA23A6C32F}" name="tamanho do vetor" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{736B6FB3-C233-6842-BF15-60367B451223}" name="trocas" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{343AA112-90E9-BF40-A432-F257262E3F73}" name="linear" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{46731F3C-85DC-D94C-A862-B5CF82BE2059}" name="binaria" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{197C4A07-C4A1-2645-B5F9-2F2BCF87670A}" name="Sort + Binaria" dataDxfId="7">
       <calculatedColumnFormula>Table2[[#This Row],[binaria]]+Table2[[#This Row],[trocas]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8902,15 +8731,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9E27085B-C2DF-AE48-B514-606398C2DC46}" name="Table3" displayName="Table3" ref="A1:E6" totalsRowShown="0" dataDxfId="14">
-  <autoFilter ref="A1:E6" xr:uid="{9E27085B-C2DF-AE48-B514-606398C2DC46}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5394A92F-56B8-2C45-8EF0-68C41026A1FA}" name="tamanho do vetor" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{04ACB5C3-2B8A-A244-9C36-812B929BF1BE}" name="trocas" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{16B434ED-369B-AC4C-A6A0-F481FE613FCC}" name="linear" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{AECA3D7D-7063-3747-A462-7BF2E269FF29}" name="binaria" dataDxfId="15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9E27085B-C2DF-AE48-B514-606398C2DC46}" name="Table3" displayName="Table3" ref="A1:F6" totalsRowShown="0" dataDxfId="6">
+  <autoFilter ref="A1:F6" xr:uid="{9E27085B-C2DF-AE48-B514-606398C2DC46}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{5394A92F-56B8-2C45-8EF0-68C41026A1FA}" name="tamanho do vetor" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{04ACB5C3-2B8A-A244-9C36-812B929BF1BE}" name="trocas" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{16B434ED-369B-AC4C-A6A0-F481FE613FCC}" name="linear" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{AECA3D7D-7063-3747-A462-7BF2E269FF29}" name="binaria" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{B2EA4F86-CE16-AA44-A802-5509FDC4FD37}" name="sort + binaria" dataDxfId="1">
       <calculatedColumnFormula>Table3[[#This Row],[binaria]]+Table3[[#This Row],[trocas]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{B1A17F4D-D321-5147-A15E-DCF99A42F3ED}" name="Economia com o sort" dataDxfId="0">
+      <calculatedColumnFormula>Table3[[#This Row],[linear]]-Table3[[#This Row],[binaria]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -9237,7 +9069,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9246,174 +9078,174 @@
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
     <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>15</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>100000</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>2499498964</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>33</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <f>Table1[[#This Row],[binaria]]+Table1[[#This Row],[trocas]]</f>
         <v>2499498997</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="13">
         <v>100000</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="9">
         <f>Table1[[#This Row],[binaria]]+Table1[[#This Row],[trocas]]</f>
         <v>2499498997</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>200000</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>10003455881</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>35</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <f>Table1[[#This Row],[binaria]]+Table1[[#This Row],[trocas]]</f>
         <v>10003455916</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="14">
         <v>200000</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="10">
         <f>Table1[[#This Row],[binaria]]+Table1[[#This Row],[trocas]]</f>
         <v>10003455916</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>400000</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>39998391860</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>37.1</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <f>Table1[[#This Row],[binaria]]+Table1[[#This Row],[trocas]]</f>
         <v>39998391897.099998</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <v>400000</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="9">
         <f>Table1[[#This Row],[binaria]]+Table1[[#This Row],[trocas]]</f>
         <v>39998391897.099998</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>800000</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>160002414205</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>39.299999999999997</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <f>Table1[[#This Row],[binaria]]+Table1[[#This Row],[trocas]]</f>
         <v>160002414244.29999</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <v>800000</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="10">
         <f>Table1[[#This Row],[binaria]]+Table1[[#This Row],[trocas]]</f>
         <v>160002414244.29999</v>
       </c>
-      <c r="J5" s="13" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>1600000</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>640123779691</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>41</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <f>Table1[[#This Row],[binaria]]+Table1[[#This Row],[trocas]]</f>
         <v>640123779732</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <v>1600000</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="9">
         <f>Table1[[#This Row],[binaria]]+Table1[[#This Row],[trocas]]</f>
         <v>640123779732</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -9431,7 +9263,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9460,160 +9292,160 @@
       <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>100000</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>12500804057</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>96662.399999999994</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>33.1</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <f>Table2[[#This Row],[binaria]]+Table2[[#This Row],[trocas]]</f>
         <v>12500804090.1</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="13">
         <v>100000</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="11">
         <v>96662.399999999994</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="9">
         <f>Table2[[#This Row],[binaria]]+Table2[[#This Row],[trocas]]</f>
         <v>12500804090.1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>200000</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>50005376488</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>35.1</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <f>Table2[[#This Row],[binaria]]+Table2[[#This Row],[trocas]]</f>
         <v>50005376523.099998</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="14">
         <v>200000</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="10">
         <f>Table2[[#This Row],[binaria]]+Table2[[#This Row],[trocas]]</f>
         <v>50005376523.099998</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>400000</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>200018469882</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>37.200000000000003</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <f>Table2[[#This Row],[binaria]]+Table2[[#This Row],[trocas]]</f>
         <v>200018469919.20001</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <v>400000</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <f>Table2[[#This Row],[binaria]]+Table2[[#This Row],[trocas]]</f>
         <v>200018469919.20001</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>800000</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <f xml:space="preserve"> (800086040334 + 800537472415 + 799978225099 + 799387966087 + 800276624824 + 799804266864 + 799211555020 + 800941353327 + 799578878853 + 800184601975 + 799529716422 + 799532867946 + 800339917297 + 799771289356 + 800047973865 + 799291894591 + 800100211966 + 799225013740 + 799791895323 + 799936228219 + 799555518679 + 800131307422 + 800210713449 + 799826289280 + 799975054861 + 800246732061 + 800427811965 + 799526214289 + 800035829082 + 799514222046)/30</f>
         <v>799900122888.56665</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <f>(800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 50173 + 800000 + 800000 + 800000)/30</f>
         <v>775005.76666666672</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <f>(38 + 40 + 40 + 40 + 38 + 40 + 40 + 38 + 40 + 40 + 40 + 40 + 40 + 40 + 40 + 38 + 38 + 40 + 38 + 38 + 38 + 40 + 40 + 38 + 40 + 35 + 40 + 40 + 40 + 40 )/30</f>
         <v>39.233333333333334</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <f>Table2[[#This Row],[binaria]]+Table2[[#This Row],[trocas]]</f>
         <v>799900122927.79993</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <v>800000</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="12">
         <f>(800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 800000 + 50173 + 800000 + 800000 + 800000)/30</f>
         <v>775005.76666666672</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="10">
         <f>Table2[[#This Row],[binaria]]+Table2[[#This Row],[trocas]]</f>
         <v>799900122927.79993</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>1600000</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <f>(3202056218043 + 3200377003575 + 3199871264862 + 3199248043187 + 3200301794981 + 3199431448245 + 3199845698928 + 3199945745894 + 3199399641824 + 3201337033770)/10</f>
         <v>3200181389330.8999</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <f>(1600000 + 1600000 + 1600000 + 1600000 + 49702 + 1600000 + 1600000 + 1600000 + 1600000 + 1600000)/10</f>
         <v>1444970.2</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <f>(42 + 40 + 42 + 37 + 42 + 42 + 40 + 42 + 42 + 40)/10</f>
         <v>40.9</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <f>Table2[[#This Row],[binaria]]+Table2[[#This Row],[trocas]]</f>
         <v>3200181389371.7998</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <v>1600000</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <f>(1600000 + 1600000 + 1600000 + 1600000 + 49702 + 1600000 + 1600000 + 1600000 + 1600000 + 1600000)/10</f>
         <v>1444970.2</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="9">
         <f>Table2[[#This Row],[binaria]]+Table2[[#This Row],[trocas]]</f>
         <v>3200181389371.7998</v>
       </c>
@@ -9632,8 +9464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E393993-E8E9-BF4B-9731-C7A4D16B96C8}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9641,6 +9473,7 @@
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -9661,152 +9494,175 @@
       <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>100000</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>5001256183</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>98342.399999999994</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>33.4</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <f>Table3[[#This Row],[binaria]]+Table3[[#This Row],[trocas]]</f>
         <v>5001256216.3999996</v>
       </c>
-      <c r="H2" s="14">
+      <c r="F2" s="5">
+        <f>Table3[[#This Row],[linear]]-Table3[[#This Row],[binaria]]</f>
+        <v>98309</v>
+      </c>
+      <c r="H2" s="13">
         <v>100000</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="17">
         <v>98342.399999999994</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="15">
         <f>Table3[[#This Row],[binaria]]+Table3[[#This Row],[trocas]]</f>
         <v>5001256216.3999996</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>200000</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>20002652536</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>190017.9</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>35.299999999999997</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <f>Table3[[#This Row],[binaria]]+Table3[[#This Row],[trocas]]</f>
         <v>20002652571.299999</v>
       </c>
-      <c r="H3" s="15">
+      <c r="F3" s="5">
+        <f>Table3[[#This Row],[linear]]-Table3[[#This Row],[binaria]]</f>
+        <v>189982.6</v>
+      </c>
+      <c r="H3" s="14">
         <v>200000</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="18">
         <v>190017.9</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="16">
         <f>Table3[[#This Row],[binaria]]+Table3[[#This Row],[trocas]]</f>
         <v>20002652571.299999</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>400000</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>80005579117</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>353340.6</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>36.6</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <f>Table3[[#This Row],[binaria]]+Table3[[#This Row],[trocas]]</f>
         <v>80005579153.600006</v>
       </c>
-      <c r="H4" s="14">
+      <c r="F4" s="5">
+        <f>Table3[[#This Row],[linear]]-Table3[[#This Row],[binaria]]</f>
+        <v>353304</v>
+      </c>
+      <c r="H4" s="13">
         <v>400000</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="17">
         <v>353340.6</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="15">
         <f>Table3[[#This Row],[binaria]]+Table3[[#This Row],[trocas]]</f>
         <v>80005579153.600006</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>800000</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>320011712852</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="C5" s="6">
+        <v>749984.7</v>
+      </c>
+      <c r="D5" s="6">
         <v>39.1</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <f>Table3[[#This Row],[binaria]]+Table3[[#This Row],[trocas]]</f>
         <v>320011712891.09998</v>
       </c>
-      <c r="H5" s="15">
+      <c r="F5" s="5">
+        <f>Table3[[#This Row],[linear]]-Table3[[#This Row],[binaria]]</f>
+        <v>749945.6</v>
+      </c>
+      <c r="H5" s="14">
         <v>800000</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="16">
         <f>Table3[[#This Row],[binaria]]+Table3[[#This Row],[trocas]]</f>
         <v>320011712891.09998</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>1600000</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>1280024551410</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="C6" s="6">
+        <v>1600000</v>
+      </c>
+      <c r="D6" s="6">
         <v>41.6</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <f>Table3[[#This Row],[binaria]]+Table3[[#This Row],[trocas]]</f>
         <v>1280024551451.6001</v>
       </c>
-      <c r="H6" s="14">
+      <c r="F6" s="5">
+        <f>Table3[[#This Row],[linear]]-Table3[[#This Row],[binaria]]</f>
+        <v>1599958.4</v>
+      </c>
+      <c r="H6" s="13">
         <v>1600000</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="15">
         <f>Table3[[#This Row],[binaria]]+Table3[[#This Row],[trocas]]</f>
         <v>1280024551451.6001</v>
       </c>
@@ -9826,105 +9682,107 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="24">
         <v>100000</v>
       </c>
-      <c r="B2" s="1" cm="1">
+      <c r="B2" s="25" cm="1">
         <f t="array" ref="B2:B6">bubbleSort!B2:B6</f>
         <v>12500804057</v>
       </c>
-      <c r="C2" s="1" cm="1">
+      <c r="C2" s="25" cm="1">
         <f t="array" ref="C2:C6">Table1[trocas]</f>
         <v>2499498964</v>
       </c>
-      <c r="D2" s="1" cm="1">
+      <c r="D2" s="25" cm="1">
         <f t="array" ref="D2:D6">Table3[trocas]</f>
         <v>5001256183</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="24">
         <v>200000</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="25">
         <v>50005376488</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="25">
         <v>10003455881</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="25">
         <v>20002652536</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="24">
         <v>400000</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="25">
         <v>200018469882</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="25">
         <v>39998391860</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="25">
         <v>80005579117</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="24">
         <v>800000</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="25">
         <v>799900122888.56665</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="25">
         <v>160002414205</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="25">
         <v>320011712852</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="24">
         <v>1600000</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="25">
         <v>3200181389330.8999</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="25">
         <v>640123779691</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="25">
         <v>1280024551410</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>